--- a/data_config/ConditionActionEffect.xlsx
+++ b/data_config/ConditionActionEffect.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10890"/>
+    <workbookView windowWidth="30240" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -178,7 +165,7 @@
     <t>actionType</t>
   </si>
   <si>
-    <t>actionParam</t>
+    <t>actionParamIntList</t>
   </si>
   <si>
     <t>int</t>
@@ -253,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -413,12 +400,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1243,10 +1230,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
@@ -1314,7 +1301,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:9">
@@ -1421,7 +1408,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1438,7 +1425,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ConditionActionEffect.xlsx
+++ b/data_config/ConditionActionEffect.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="17400"/>
+    <workbookView windowWidth="15735" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -204,7 +217,7 @@
     <t>行为参数</t>
   </si>
   <si>
-    <t>2905101</t>
+    <t>29005101</t>
   </si>
   <si>
     <t>萧玉 q技能 实体关系条件 队友就加血</t>
@@ -225,7 +238,7 @@
     <t>4005201</t>
   </si>
   <si>
-    <t>2905201</t>
+    <t>29005201</t>
   </si>
   <si>
     <t>萧玉 q技能 实体关系条件 敌人就费血</t>
@@ -240,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1230,10 +1243,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
@@ -1408,7 +1421,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1425,7 +1438,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data_config/ConditionActionEffect.xlsx
+++ b/data_config/ConditionActionEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="10890"/>
+    <workbookView windowWidth="18270" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
           </rPr>
           <t xml:space="preserve">
 type为1：属性：参见attr表
-type为 201：x,y x和y 均为单位类型，0：选取的单位 1：技能释放者</t>
+type为 201：x,y x和y 均为单位类型，0：选取的单位（上下文中选取的） 1：技能释放者</t>
         </r>
       </text>
     </comment>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -248,6 +248,24 @@
   </si>
   <si>
     <t>4005301</t>
+  </si>
+  <si>
+    <t>29005301</t>
+  </si>
+  <si>
+    <t>萧玉 大招 实体关系条件 队友就加护甲</t>
+  </si>
+  <si>
+    <t>14005101,27005101</t>
+  </si>
+  <si>
+    <t>29005401</t>
+  </si>
+  <si>
+    <t>萧玉 大招 实体关系条件 敌人就收到伤害</t>
+  </si>
+  <si>
+    <t>4005501</t>
   </si>
 </sst>
 </file>
@@ -413,12 +431,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1238,25 +1256,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1346,62 +1364,120 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="1" t="s">
+    <row r="7" customFormat="1" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/ConditionActionEffect.xlsx
+++ b/data_config/ConditionActionEffect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18270" windowHeight="10890"/>
+    <workbookView windowWidth="16530" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -248,6 +248,30 @@
   </si>
   <si>
     <t>4005301</t>
+  </si>
+  <si>
+    <t>29005202</t>
+  </si>
+  <si>
+    <t>4005302</t>
+  </si>
+  <si>
+    <t>29005203</t>
+  </si>
+  <si>
+    <t>4005303</t>
+  </si>
+  <si>
+    <t>29005204</t>
+  </si>
+  <si>
+    <t>4005304</t>
+  </si>
+  <si>
+    <t>29005205</t>
+  </si>
+  <si>
+    <t>4005305</t>
   </si>
   <si>
     <t>29005301</t>
@@ -1256,12 +1280,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I11" sqref="I11"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1394,43 +1418,25 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
@@ -1442,13 +1448,13 @@
         <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:9">
@@ -1456,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
@@ -1477,7 +1483,218 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" customFormat="1" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
